--- a/biology/Botanique/Pandaceae/Pandaceae.xlsx
+++ b/biology/Botanique/Pandaceae/Pandaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pandaceae (les Pandacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elle comprend une trentaine d'espèces réparties en 3 à 5 genres.
 Ce sont des arbustes ou des arbres des régions tropicales, originaires de l'Afrique de l'Ouest et de l'Asie du Sud-Est.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Panda, nom vernaculaire au Nigeria et au Cameroun[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Panda, nom vernaculaire au Nigeria et au Cameroun.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] situent cette famille dans l'ordre des Malpighiales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent cette famille dans l'ordre des Malpighiales.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 mai 2010)[4], Angiosperm Phylogeny Website                        (24 mai 2010)[5] et NCBI  (24 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 mai 2010), Angiosperm Phylogeny Website                        (24 mai 2010) et NCBI  (24 mai 2010) :
 Galearia (en) Zoll. &amp; Moritzi (1846)
 Microdesmis (en) Planch. (1848)
 Panda Pierre (1896)
-Selon DELTA Angio           (24 mai 2010)[7] :
+Selon DELTA Angio           (24 mai 2010) :
 Bhesa (en) : parfois classé dans les Centroplacaceae
 Centroplacus (en) : parfois classé dans les Centroplacaceae
 Galearia
@@ -613,9 +631,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (24 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (24 mai 2010) :
 genre Galearia Zoll. &amp; Moritzi (1846)
 Galearia aristifera Miq., Fl. Ned. Ind. (1861)
 Galearia celebica Koord., Meded. Lands Plantentuin 19: 584, 626 (1898)
